--- a/smbinning/analysis.xlsx
+++ b/smbinning/analysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mycode\rocket\smbinning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10524" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="10524" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sumiv_R" sheetId="3" r:id="rId1"/>
@@ -15,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sumiv_R!$A$1:$D$146</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="323">
   <si>
     <t>Char</t>
   </si>
@@ -994,14 +999,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,167 +1012,23 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Lucida Console"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1192,194 +1047,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1402,251 +1071,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,61 +1106,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1991,11 +1374,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K146"/>
   <sheetViews>
@@ -2003,14 +1387,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="36.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2035,21 +1419,21 @@
         <v>0.1961</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,J:K,2,0)</f>
-        <v>0.2023</v>
+        <f t="shared" ref="C2:C33" si="0">VLOOKUP(A2,J:K,2,0)</f>
+        <v>0.20230000000000001</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>0.00620000000000001</v>
+        <v>6.2000000000000111E-3</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2">
-        <v>0.2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.20230000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2057,21 +1441,21 @@
         <v>0.1328</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1454</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>0.0126</v>
+        <f t="shared" ref="D3:D66" si="1">C3-B3</f>
+        <v>1.26E-2</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3">
-        <v>0.1359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2079,12 +1463,12 @@
         <v>0.1258</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,J:K,2,0)</f>
-        <v>0.1354</v>
+        <f t="shared" si="0"/>
+        <v>0.13539999999999999</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.0096</v>
+        <f t="shared" si="1"/>
+        <v>9.5999999999999974E-3</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -2093,42 +1477,42 @@
         <v>0.1323</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1238</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,J:K,2,0)</f>
-        <v>0.1296</v>
+        <f t="shared" si="0"/>
+        <v>0.12959999999999999</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.0058</v>
+        <f t="shared" si="1"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5">
-        <v>0.1309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.13089999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1209</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1293</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.0084</v>
+        <f t="shared" si="1"/>
+        <v>8.4000000000000047E-3</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -2137,20 +1521,20 @@
         <v>0.1298</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1194</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(A7,J:K,2,0)</f>
-        <v>0.1359</v>
+        <f t="shared" si="0"/>
+        <v>0.13589999999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.0165</v>
+        <f t="shared" si="1"/>
+        <v>1.6499999999999987E-2</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -2159,29 +1543,29 @@
         <v>0.1293</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1189</v>
+        <v>0.11890000000000001</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(A8,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1278</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.00889999999999999</v>
+        <f t="shared" si="1"/>
+        <v>8.8999999999999913E-3</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8">
-        <v>0.1233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.12330000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2189,43 +1573,43 @@
         <v>0.1157</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(A9,J:K,2,0)</f>
-        <v>0.1233</v>
+        <f t="shared" si="0"/>
+        <v>0.12330000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.00760000000000001</v>
+        <f t="shared" si="1"/>
+        <v>7.6000000000000095E-3</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9">
-        <v>0.1219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1102</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(A10,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1323</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.0221</v>
+        <f t="shared" si="1"/>
+        <v>2.2099999999999995E-2</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10">
-        <v>0.1214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.12139999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2233,12 +1617,12 @@
         <v>0.1084</v>
       </c>
       <c r="C11">
-        <f>VLOOKUP(A11,J:K,2,0)</f>
-        <v>0.1219</v>
+        <f t="shared" si="0"/>
+        <v>0.12189999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.0135</v>
+        <f t="shared" si="1"/>
+        <v>1.3499999999999998E-2</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -2247,42 +1631,42 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.1068</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="C12">
-        <f>VLOOKUP(A12,J:K,2,0)</f>
-        <v>0.1068</v>
+        <f t="shared" si="0"/>
+        <v>0.10680000000000001</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.1107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0994</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="C13">
-        <f>VLOOKUP(A13,J:K,2,0)</f>
-        <v>0.1214</v>
+        <f t="shared" si="0"/>
+        <v>0.12139999999999999</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.022</v>
+        <f t="shared" si="1"/>
+        <v>2.1999999999999992E-2</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -2291,42 +1675,42 @@
         <v>0.1076</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.0976</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="C14">
-        <f>VLOOKUP(A14,J:K,2,0)</f>
-        <v>0.1309</v>
+        <f t="shared" si="0"/>
+        <v>0.13089999999999999</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.0333</v>
+        <f t="shared" si="1"/>
+        <v>3.3299999999999982E-2</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
       <c r="K14">
-        <v>0.1068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C15">
-        <f>VLOOKUP(A15,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1298</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.0328</v>
+        <f t="shared" si="1"/>
+        <v>3.2799999999999996E-2</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -2335,42 +1719,42 @@
         <v>0.1066</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0961</v>
+        <v>9.6100000000000005E-2</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(A16,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.113</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.0169</v>
+        <f t="shared" si="1"/>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="K16">
-        <v>0.1063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0953</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(A17,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1031</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.0078</v>
+        <f t="shared" si="1"/>
+        <v>7.8000000000000014E-3</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2379,20 +1763,20 @@
         <v>0.1031</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0918</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="C18">
-        <f>VLOOKUP(A18,J:K,2,0)</f>
-        <v>0.1266</v>
+        <f t="shared" si="0"/>
+        <v>0.12659999999999999</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.0348</v>
+        <f t="shared" si="1"/>
+        <v>3.4799999999999984E-2</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
@@ -2401,20 +1785,20 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0901</v>
+        <v>9.01E-2</v>
       </c>
       <c r="C19">
-        <f>VLOOKUP(A19,J:K,2,0)</f>
-        <v>0.093</v>
+        <f t="shared" si="0"/>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.0029</v>
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -2423,393 +1807,393 @@
         <v>0.1008</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.0881</v>
+        <v>8.8099999999999998E-2</v>
       </c>
       <c r="C20">
-        <f>VLOOKUP(A20,J:K,2,0)</f>
-        <v>0.1107</v>
+        <f t="shared" si="0"/>
+        <v>0.11070000000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.0226</v>
+        <f t="shared" si="1"/>
+        <v>2.2600000000000009E-2</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.0989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>9.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C21">
-        <f>VLOOKUP(A21,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1019</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.0139</v>
+        <f t="shared" si="1"/>
+        <v>1.390000000000001E-2</v>
       </c>
       <c r="J21" t="s">
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.0985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0855</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="C22">
-        <f>VLOOKUP(A22,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1011</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.0156</v>
+        <f t="shared" si="1"/>
+        <v>1.5599999999999989E-2</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
       </c>
       <c r="K22">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.0823</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="C23">
-        <f>VLOOKUP(A23,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1076</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.0253</v>
+        <f t="shared" si="1"/>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.0895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>8.9499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0822</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C24">
-        <f>VLOOKUP(A24,J:K,2,0)</f>
-        <v>0.0989</v>
+        <f t="shared" si="0"/>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.0167</v>
+        <f t="shared" si="1"/>
+        <v>1.6700000000000007E-2</v>
       </c>
       <c r="J24" t="s">
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0815</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="C25">
-        <f>VLOOKUP(A25,J:K,2,0)</f>
-        <v>0.0985</v>
+        <f t="shared" si="0"/>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.017</v>
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J25" t="s">
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.0883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>8.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26">
-        <v>0.0804</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="C26">
-        <f>VLOOKUP(A26,J:K,2,0)</f>
-        <v>0.0883</v>
+        <f t="shared" si="0"/>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.0079</v>
+        <f t="shared" si="1"/>
+        <v>7.9000000000000042E-3</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.0874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>8.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.0777</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="C27">
-        <f>VLOOKUP(A27,J:K,2,0)</f>
-        <v>0.1063</v>
+        <f t="shared" si="0"/>
+        <v>0.10630000000000001</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.0286</v>
+        <f t="shared" si="1"/>
+        <v>2.86E-2</v>
       </c>
       <c r="J27" t="s">
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.0846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28">
-        <v>0.0777</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="C28">
-        <f>VLOOKUP(A28,J:K,2,0)</f>
-        <v>0.0846</v>
+        <f t="shared" si="0"/>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.00689999999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.8999999999999895E-3</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.0839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="C29">
-        <f>VLOOKUP(A29,J:K,2,0)</f>
-        <v>0.089</v>
+        <f t="shared" si="0"/>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.0121</v>
+        <f t="shared" si="1"/>
+        <v>1.21E-2</v>
       </c>
       <c r="J29" t="s">
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.0831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0755</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C30">
-        <f>VLOOKUP(A30,J:K,2,0)</f>
-        <v>0.0832</v>
+        <f t="shared" si="0"/>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.0077</v>
+        <f t="shared" si="1"/>
+        <v>7.6999999999999985E-3</v>
       </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.0821</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
-        <v>0.0743</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="C31">
-        <f>VLOOKUP(A31,J:K,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1008</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.0265</v>
+        <f t="shared" si="1"/>
+        <v>2.6499999999999996E-2</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.0798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.0736</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="C32">
-        <f>VLOOKUP(A32,J:K,2,0)</f>
-        <v>0.0895</v>
+        <f t="shared" si="0"/>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.0159</v>
+        <f t="shared" si="1"/>
+        <v>1.5899999999999997E-2</v>
       </c>
       <c r="J32" t="s">
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.0794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.0728</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="C33">
-        <f>VLOOKUP(A33,J:K,2,0)</f>
-        <v>0.0794</v>
+        <f t="shared" si="0"/>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.00659999999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.5999999999999948E-3</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.0784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0722</v>
+        <v>7.22E-2</v>
       </c>
       <c r="C34">
-        <f>VLOOKUP(A34,J:K,2,0)</f>
-        <v>0.0831</v>
+        <f t="shared" ref="C34:C65" si="2">VLOOKUP(A34,J:K,2,0)</f>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.0109</v>
+        <f t="shared" si="1"/>
+        <v>1.0899999999999993E-2</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.0764</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>7.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0722</v>
+        <v>7.22E-2</v>
       </c>
       <c r="C35">
-        <f>VLOOKUP(A35,J:K,2,0)</f>
-        <v>0.0798</v>
+        <f t="shared" si="2"/>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.0076</v>
+        <f t="shared" si="1"/>
+        <v>7.5999999999999956E-3</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.0678</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36">
-        <v>0.072</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C36">
-        <f>VLOOKUP(A36,J:K,2,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1066</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.0346</v>
+        <f t="shared" si="1"/>
+        <v>3.4600000000000006E-2</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.0677</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:11">
+        <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37">
-        <v>0.0715</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="C37" t="e">
-        <f>VLOOKUP(A37,J:K,2,0)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="J37" t="s">
@@ -2819,548 +2203,548 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
       <c r="B38">
-        <v>0.0715</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="C38">
-        <f>VLOOKUP(A38,J:K,2,0)</f>
-        <v>0.0785</v>
+        <f t="shared" si="2"/>
+        <v>7.85E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0.00700000000000001</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000062E-3</v>
       </c>
       <c r="J38" t="s">
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.0661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39">
-        <v>0.0684</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="C39">
-        <f>VLOOKUP(A39,J:K,2,0)</f>
-        <v>0.0839</v>
+        <f t="shared" si="2"/>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.0155</v>
+        <f t="shared" si="1"/>
+        <v>1.55E-2</v>
       </c>
       <c r="J39" t="s">
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.0652</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.0643</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="C40">
-        <f>VLOOKUP(A40,J:K,2,0)</f>
-        <v>0.0821</v>
+        <f t="shared" si="2"/>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0.0178</v>
+        <f t="shared" si="1"/>
+        <v>1.780000000000001E-2</v>
       </c>
       <c r="J40" t="s">
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.0642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
       <c r="B41">
-        <v>0.0642</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="C41">
-        <f>VLOOKUP(A41,J:K,2,0)</f>
-        <v>0.0874</v>
+        <f t="shared" si="2"/>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0.0232</v>
+        <f t="shared" si="1"/>
+        <v>2.3200000000000012E-2</v>
       </c>
       <c r="J41" t="s">
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.0632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0.0619</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="C42">
-        <f>VLOOKUP(A42,J:K,2,0)</f>
-        <v>0.0764</v>
+        <f t="shared" si="2"/>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0.0145</v>
+        <f t="shared" si="1"/>
+        <v>1.4499999999999999E-2</v>
       </c>
       <c r="J42" t="s">
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.0628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
       <c r="B43">
-        <v>0.0592</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="C43">
-        <f>VLOOKUP(A43,J:K,2,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1033</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0.0441</v>
+        <f t="shared" si="1"/>
+        <v>4.41E-2</v>
       </c>
       <c r="J43" t="s">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.0607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>6.0699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.0576</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="C44">
-        <f>VLOOKUP(A44,J:K,2,0)</f>
-        <v>0.1093</v>
+        <f t="shared" si="2"/>
+        <v>0.10929999999999999</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0.0517</v>
+        <f t="shared" si="1"/>
+        <v>5.1699999999999996E-2</v>
       </c>
       <c r="J44" t="s">
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.0588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>0.0538</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="C45">
-        <f>VLOOKUP(A45,J:K,2,0)</f>
+        <f t="shared" si="2"/>
         <v>0.1012</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0.0474</v>
+        <f t="shared" si="1"/>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="J45" t="s">
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.0585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0537</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="C46">
-        <f>VLOOKUP(A46,J:K,2,0)</f>
-        <v>0.0642</v>
+        <f t="shared" si="2"/>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0.0105</v>
+        <f t="shared" si="1"/>
+        <v>1.0499999999999995E-2</v>
       </c>
       <c r="J46" t="s">
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.0576</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
       <c r="B47">
-        <v>0.0508</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="C47">
-        <f>VLOOKUP(A47,J:K,2,0)</f>
-        <v>0.086</v>
+        <f t="shared" si="2"/>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>0.0352</v>
+        <f t="shared" si="1"/>
+        <v>3.5199999999999995E-2</v>
       </c>
       <c r="J47" t="s">
         <v>62</v>
       </c>
       <c r="K47">
-        <v>0.0556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
       <c r="B48">
-        <v>0.0486</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="C48">
-        <f>VLOOKUP(A48,J:K,2,0)</f>
-        <v>0.0588</v>
+        <f t="shared" si="2"/>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0.0102</v>
+        <f t="shared" si="1"/>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="J48" t="s">
         <v>63</v>
       </c>
       <c r="K48">
-        <v>0.0534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
       <c r="B49">
-        <v>0.0463</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="C49">
-        <f>VLOOKUP(A49,J:K,2,0)</f>
-        <v>0.0784</v>
+        <f t="shared" si="2"/>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>0.0321</v>
+        <f t="shared" si="1"/>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="J49" t="s">
         <v>64</v>
       </c>
       <c r="K49">
-        <v>0.0527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
       <c r="B50">
-        <v>0.0461</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="C50">
-        <f>VLOOKUP(A50,J:K,2,0)</f>
-        <v>0.0461</v>
+        <f t="shared" si="2"/>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>66</v>
       </c>
       <c r="K50">
-        <v>0.0515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
       <c r="B51">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C51">
-        <f>VLOOKUP(A51,J:K,2,0)</f>
-        <v>0.0576</v>
+        <f t="shared" si="2"/>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0.0126</v>
+        <f t="shared" si="1"/>
+        <v>1.26E-2</v>
       </c>
       <c r="J51" t="s">
         <v>67</v>
       </c>
       <c r="K51">
-        <v>0.0509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
       <c r="B52">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C52">
-        <f>VLOOKUP(A52,J:K,2,0)</f>
-        <v>0.0677</v>
+        <f t="shared" si="2"/>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0.0227</v>
+        <f t="shared" si="1"/>
+        <v>2.2699999999999998E-2</v>
       </c>
       <c r="J52" t="s">
         <v>68</v>
       </c>
       <c r="K52">
-        <v>0.0483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
       <c r="B53">
-        <v>0.0442</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="C53">
-        <f>VLOOKUP(A53,J:K,2,0)</f>
-        <v>0.0661</v>
+        <f t="shared" si="2"/>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0.0219</v>
+        <f t="shared" si="1"/>
+        <v>2.1900000000000003E-2</v>
       </c>
       <c r="J53" t="s">
         <v>69</v>
       </c>
       <c r="K53">
-        <v>0.0464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
       <c r="B54">
-        <v>0.0436</v>
+        <v>4.36E-2</v>
       </c>
       <c r="C54">
-        <f>VLOOKUP(A54,J:K,2,0)</f>
-        <v>0.0539</v>
+        <f t="shared" si="2"/>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0.0103</v>
+        <f t="shared" si="1"/>
+        <v>1.0300000000000004E-2</v>
       </c>
       <c r="J54" t="s">
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.0461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
       <c r="B55">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="C55">
-        <f>VLOOKUP(A55,J:K,2,0)</f>
-        <v>0.0639</v>
+        <f t="shared" si="2"/>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>0.0204</v>
+        <f t="shared" si="1"/>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="J55" t="s">
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.0457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
       <c r="B56">
-        <v>0.0434</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(A56,J:K,2,0)</f>
-        <v>0.0678</v>
+        <f t="shared" si="2"/>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0.0244</v>
+        <f t="shared" si="1"/>
+        <v>2.4399999999999998E-2</v>
       </c>
       <c r="J56" t="s">
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.0455</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
       <c r="B57">
-        <v>0.0433</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="C57">
-        <f>VLOOKUP(A57,J:K,2,0)</f>
-        <v>0.0652</v>
+        <f t="shared" si="2"/>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0.0219</v>
+        <f t="shared" si="1"/>
+        <v>2.1899999999999996E-2</v>
       </c>
       <c r="J57" t="s">
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.0452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0419</v>
+        <v>4.19E-2</v>
       </c>
       <c r="C58">
-        <f>VLOOKUP(A58,J:K,2,0)</f>
-        <v>0.0534</v>
+        <f t="shared" si="2"/>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0.0115</v>
+        <f t="shared" si="1"/>
+        <v>1.1500000000000003E-2</v>
       </c>
       <c r="J58" t="s">
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="C59">
-        <f>VLOOKUP(A59,J:K,2,0)</f>
-        <v>0.0527</v>
+        <f t="shared" si="2"/>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0.011</v>
+        <f t="shared" si="1"/>
+        <v>1.0999999999999996E-2</v>
       </c>
       <c r="J59" t="s">
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.0415</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="C60">
-        <f>VLOOKUP(A60,J:K,2,0)</f>
-        <v>0.0556</v>
+        <f t="shared" si="2"/>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0.0141</v>
+        <f t="shared" si="1"/>
+        <v>1.4099999999999994E-2</v>
       </c>
       <c r="J60" t="s">
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.0428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
       <c r="B61">
-        <v>0.0414</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="C61">
-        <f>VLOOKUP(A61,J:K,2,0)</f>
-        <v>0.0632</v>
+        <f t="shared" si="2"/>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0.0218</v>
+        <f t="shared" si="1"/>
+        <v>2.1800000000000007E-2</v>
       </c>
       <c r="J61" t="s">
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.0404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62">
-        <v>0.0412</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="C62">
-        <f>VLOOKUP(A62,J:K,2,0)</f>
-        <v>0.0585</v>
+        <f t="shared" si="2"/>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0.0173</v>
+        <f t="shared" si="1"/>
+        <v>1.7300000000000003E-2</v>
       </c>
       <c r="J62" t="s">
         <v>79</v>
@@ -3369,381 +2753,381 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
       <c r="B63">
-        <v>0.0389</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C63">
-        <f>VLOOKUP(A63,J:K,2,0)</f>
-        <v>0.0628</v>
+        <f t="shared" si="2"/>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>0.0239</v>
+        <f t="shared" si="1"/>
+        <v>2.3899999999999998E-2</v>
       </c>
       <c r="J63" t="s">
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.0398</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
       <c r="B64">
-        <v>0.0379</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="C64">
-        <f>VLOOKUP(A64,J:K,2,0)</f>
-        <v>0.0506</v>
+        <f t="shared" si="2"/>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>0.0127</v>
+        <f t="shared" si="1"/>
+        <v>1.2699999999999996E-2</v>
       </c>
       <c r="J64" t="s">
         <v>82</v>
       </c>
       <c r="K64">
-        <v>0.0396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C65">
-        <f>VLOOKUP(A65,J:K,2,0)</f>
-        <v>0.0509</v>
+        <f t="shared" si="2"/>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0.0149</v>
+        <f t="shared" si="1"/>
+        <v>1.4900000000000004E-2</v>
       </c>
       <c r="J65" t="s">
         <v>83</v>
       </c>
       <c r="K65">
-        <v>0.0368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
       <c r="B66">
-        <v>0.0355</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C66">
-        <f>VLOOKUP(A66,J:K,2,0)</f>
-        <v>0.0455</v>
+        <f t="shared" ref="C66:C97" si="3">VLOOKUP(A66,J:K,2,0)</f>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="J66" t="s">
         <v>84</v>
       </c>
       <c r="K66">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.0354</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C67">
-        <f>VLOOKUP(A67,J:K,2,0)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">C67-B67</f>
-        <v>0.0046</v>
+        <f t="shared" ref="D67:D130" si="4">C67-B67</f>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J67" t="s">
         <v>85</v>
       </c>
       <c r="K67">
-        <v>0.0345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
       <c r="B68">
-        <v>0.0352</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="C68">
-        <f>VLOOKUP(A68,J:K,2,0)</f>
-        <v>0.0462</v>
+        <f t="shared" si="3"/>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>0.011</v>
+        <f t="shared" si="4"/>
+        <v>1.0999999999999996E-2</v>
       </c>
       <c r="J68" t="s">
         <v>87</v>
       </c>
       <c r="K68">
-        <v>0.0343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C69">
-        <f>VLOOKUP(A69,J:K,2,0)</f>
-        <v>0.0464</v>
+        <f t="shared" si="3"/>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0.0114</v>
+        <f t="shared" si="4"/>
+        <v>1.1399999999999993E-2</v>
       </c>
       <c r="J69" t="s">
         <v>88</v>
       </c>
       <c r="K69">
-        <v>0.0338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.0349</v>
+        <v>3.49E-2</v>
       </c>
       <c r="C70">
-        <f>VLOOKUP(A70,J:K,2,0)</f>
-        <v>0.0448</v>
+        <f t="shared" si="3"/>
+        <v>4.48E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>0.0099</v>
+        <f t="shared" si="4"/>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="J70" t="s">
         <v>89</v>
       </c>
       <c r="K70">
-        <v>0.0334</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.0309</v>
+        <v>3.09E-2</v>
       </c>
       <c r="C71">
-        <f>VLOOKUP(A71,J:K,2,0)</f>
-        <v>0.0607</v>
+        <f t="shared" si="3"/>
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0.0298</v>
+        <f t="shared" si="4"/>
+        <v>2.9799999999999997E-2</v>
       </c>
       <c r="J71" t="s">
         <v>90</v>
       </c>
       <c r="K71">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0295</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="C72">
-        <f>VLOOKUP(A72,J:K,2,0)</f>
-        <v>0.0428</v>
+        <f t="shared" si="3"/>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>0.0133</v>
+        <f t="shared" si="4"/>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="J72" t="s">
         <v>91</v>
       </c>
       <c r="K72">
-        <v>0.0327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.0281</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C73">
-        <f>VLOOKUP(A73,J:K,2,0)</f>
-        <v>0.0483</v>
+        <f t="shared" si="3"/>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>0.0202</v>
+        <f t="shared" si="4"/>
+        <v>2.0200000000000003E-2</v>
       </c>
       <c r="J73" t="s">
         <v>92</v>
       </c>
       <c r="K73">
-        <v>0.0326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C74">
-        <f>VLOOKUP(A74,J:K,2,0)</f>
-        <v>0.0457</v>
+        <f t="shared" si="3"/>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>0.0177</v>
+        <f t="shared" si="4"/>
+        <v>1.7699999999999997E-2</v>
       </c>
       <c r="J74" t="s">
         <v>93</v>
       </c>
       <c r="K74">
-        <v>0.0317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.0266</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="C75">
-        <f>VLOOKUP(A75,J:K,2,0)</f>
-        <v>0.0448</v>
+        <f t="shared" si="3"/>
+        <v>4.48E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>0.0182</v>
+        <f t="shared" si="4"/>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="J75" t="s">
         <v>94</v>
       </c>
       <c r="K75">
-        <v>0.0311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.0246</v>
+        <v>2.46E-2</v>
       </c>
       <c r="C76">
-        <f>VLOOKUP(A76,J:K,2,0)</f>
-        <v>0.0404</v>
+        <f t="shared" si="3"/>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>0.0158</v>
+        <f t="shared" si="4"/>
+        <v>1.5799999999999998E-2</v>
       </c>
       <c r="J76" t="s">
         <v>95</v>
       </c>
       <c r="K76">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
       <c r="B77">
-        <v>0.0245</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="C77">
-        <f>VLOOKUP(A77,J:K,2,0)</f>
-        <v>0.0343</v>
+        <f t="shared" si="3"/>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>0.0098</v>
+        <f t="shared" si="4"/>
+        <v>9.7999999999999962E-3</v>
       </c>
       <c r="J77" t="s">
         <v>96</v>
       </c>
       <c r="K77">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>93</v>
       </c>
       <c r="B78">
-        <v>0.0244</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="C78">
-        <f>VLOOKUP(A78,J:K,2,0)</f>
-        <v>0.0317</v>
+        <f t="shared" si="3"/>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>0.0073</v>
+        <f t="shared" si="4"/>
+        <v>7.2999999999999975E-3</v>
       </c>
       <c r="J78" t="s">
         <v>97</v>
       </c>
       <c r="K78">
-        <v>0.0309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
       <c r="B79">
-        <v>0.0216</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C79">
-        <f>VLOOKUP(A79,J:K,2,0)</f>
-        <v>0.0515</v>
+        <f t="shared" si="3"/>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>0.0299</v>
+        <f t="shared" si="4"/>
+        <v>2.9899999999999996E-2</v>
       </c>
       <c r="J79" t="s">
         <v>98</v>
       </c>
       <c r="K79">
-        <v>0.0291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -3751,297 +3135,297 @@
         <v>0.02</v>
       </c>
       <c r="C80">
-        <f>VLOOKUP(A80,J:K,2,0)</f>
-        <v>0.0396</v>
+        <f t="shared" si="3"/>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
-        <v>0.0196</v>
+        <f t="shared" si="4"/>
+        <v>1.9600000000000003E-2</v>
       </c>
       <c r="J80" t="s">
         <v>99</v>
       </c>
       <c r="K80">
-        <v>0.0284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
       <c r="B81">
-        <v>0.0192</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="C81">
-        <f>VLOOKUP(A81,J:K,2,0)</f>
-        <v>0.0282</v>
+        <f t="shared" si="3"/>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>0.009</v>
+        <f t="shared" si="4"/>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="J81" t="s">
         <v>100</v>
       </c>
       <c r="K81">
-        <v>0.0282</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0185</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="C82">
-        <f>VLOOKUP(A82,J:K,2,0)</f>
-        <v>0.0398</v>
+        <f t="shared" si="3"/>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
-        <v>0.0213</v>
+        <f t="shared" si="4"/>
+        <v>2.1300000000000003E-2</v>
       </c>
       <c r="J82" t="s">
         <v>101</v>
       </c>
       <c r="K82">
-        <v>0.0282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
       <c r="B83">
-        <v>0.0173</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="C83">
-        <f>VLOOKUP(A83,J:K,2,0)</f>
-        <v>0.0271</v>
+        <f t="shared" si="3"/>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
-        <v>0.0098</v>
+        <f t="shared" si="4"/>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="J83" t="s">
         <v>103</v>
       </c>
       <c r="K83">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
       <c r="B84">
-        <v>0.0169</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="C84">
-        <f>VLOOKUP(A84,J:K,2,0)</f>
-        <v>0.0224</v>
+        <f t="shared" si="3"/>
+        <v>2.24E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
-        <v>0.0055</v>
+        <f t="shared" si="4"/>
+        <v>5.5000000000000014E-3</v>
       </c>
       <c r="J84" t="s">
         <v>102</v>
       </c>
       <c r="K84">
-        <v>0.0271</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
       <c r="B85">
-        <v>0.0155</v>
+        <v>1.55E-2</v>
       </c>
       <c r="C85">
-        <f>VLOOKUP(A85,J:K,2,0)</f>
-        <v>0.0284</v>
+        <f t="shared" si="3"/>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
-        <v>0.0129</v>
+        <f t="shared" si="4"/>
+        <v>1.2900000000000002E-2</v>
       </c>
       <c r="J85" t="s">
         <v>105</v>
       </c>
       <c r="K85">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0136</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="C86">
-        <f>VLOOKUP(A86,J:K,2,0)</f>
-        <v>0.0338</v>
+        <f t="shared" si="3"/>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
-        <v>0.0202</v>
+        <f t="shared" si="4"/>
+        <v>2.0199999999999996E-2</v>
       </c>
       <c r="J86" t="s">
         <v>106</v>
       </c>
       <c r="K86">
-        <v>0.0253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0133</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="C87">
-        <f>VLOOKUP(A87,J:K,2,0)</f>
-        <v>0.0345</v>
+        <f t="shared" si="3"/>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
-        <v>0.0212</v>
+        <f t="shared" si="4"/>
+        <v>2.1200000000000004E-2</v>
       </c>
       <c r="J87" t="s">
         <v>107</v>
       </c>
       <c r="K87">
-        <v>0.0243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>108</v>
       </c>
       <c r="B88">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="C88">
-        <f>VLOOKUP(A88,J:K,2,0)</f>
-        <v>0.0229</v>
+        <f t="shared" si="3"/>
+        <v>2.29E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
-        <v>0.0098</v>
+        <f t="shared" si="4"/>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="J88" t="s">
         <v>109</v>
       </c>
       <c r="K88">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>106</v>
       </c>
       <c r="B89">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="C89">
-        <f>VLOOKUP(A89,J:K,2,0)</f>
-        <v>0.0253</v>
+        <f t="shared" si="3"/>
+        <v>2.53E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
-        <v>0.0122</v>
+        <f t="shared" si="4"/>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="J89" t="s">
         <v>110</v>
       </c>
       <c r="K89">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>111</v>
       </c>
       <c r="B90">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="C90">
-        <f>VLOOKUP(A90,J:K,2,0)</f>
-        <v>0.0263</v>
+        <f t="shared" si="3"/>
+        <v>2.63E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
-        <v>0.0132</v>
+        <f t="shared" si="4"/>
+        <v>1.32E-2</v>
       </c>
       <c r="J90" t="s">
         <v>112</v>
       </c>
       <c r="K90">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="C91">
-        <f>VLOOKUP(A91,J:K,2,0)</f>
-        <v>0.0237</v>
+        <f t="shared" si="3"/>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
-        <v>0.0106</v>
+        <f t="shared" si="4"/>
+        <v>1.0599999999999998E-2</v>
       </c>
       <c r="J91" t="s">
         <v>108</v>
       </c>
       <c r="K91">
-        <v>0.0229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>2.29E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="C92">
-        <f>VLOOKUP(A92,J:K,2,0)</f>
-        <v>0.0219</v>
+        <f t="shared" si="3"/>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
-        <v>0.0088</v>
+        <f t="shared" si="4"/>
+        <v>8.7999999999999988E-3</v>
       </c>
       <c r="J92" t="s">
         <v>115</v>
       </c>
       <c r="K92">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" spans="1:11">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
       <c r="B93">
-        <v>0.0127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="C93" t="e">
-        <f>VLOOKUP(A93,J:K,2,0)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D93" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J93" t="s">
@@ -4051,86 +3435,86 @@
         <v>0.1278</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>117</v>
       </c>
       <c r="B94">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C94">
-        <f>VLOOKUP(A94,J:K,2,0)</f>
-        <v>0.0235</v>
+        <f t="shared" si="3"/>
+        <v>2.35E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
-        <v>0.0115</v>
+        <f t="shared" si="4"/>
+        <v>1.15E-2</v>
       </c>
       <c r="J94" t="s">
         <v>104</v>
       </c>
       <c r="K94">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>118</v>
       </c>
       <c r="B95">
-        <v>0.0119</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="C95">
-        <f>VLOOKUP(A95,J:K,2,0)</f>
-        <v>0.0307</v>
+        <f t="shared" si="3"/>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
-        <v>0.0188</v>
+        <f t="shared" si="4"/>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="J95" t="s">
         <v>119</v>
       </c>
       <c r="K95">
-        <v>0.0223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
       <c r="B96">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C96">
-        <f>VLOOKUP(A96,J:K,2,0)</f>
-        <v>0.0217</v>
+        <f t="shared" si="3"/>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
-        <v>0.0107</v>
+        <f t="shared" si="4"/>
+        <v>1.0700000000000001E-2</v>
       </c>
       <c r="J96" t="s">
         <v>120</v>
       </c>
       <c r="K96">
-        <v>0.0217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C97">
-        <f>VLOOKUP(A97,J:K,2,0)</f>
-        <v>0.0309</v>
+        <f t="shared" si="3"/>
+        <v>3.09E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
-        <v>0.0199</v>
+        <f t="shared" si="4"/>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="J97" t="s">
         <v>121</v>
@@ -4139,174 +3523,174 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.0107</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="C98">
-        <f>VLOOKUP(A98,J:K,2,0)</f>
-        <v>0.0282</v>
+        <f t="shared" ref="C98:C129" si="5">VLOOKUP(A98,J:K,2,0)</f>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
-        <v>0.0175</v>
+        <f t="shared" si="4"/>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="J98" t="s">
         <v>122</v>
       </c>
       <c r="K98">
-        <v>0.0182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.0104</v>
+        <v>1.04E-2</v>
       </c>
       <c r="C99">
-        <f>VLOOKUP(A99,J:K,2,0)</f>
-        <v>0.0291</v>
+        <f t="shared" si="5"/>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
-        <v>0.0187</v>
+        <f t="shared" si="4"/>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="J99" t="s">
         <v>123</v>
       </c>
       <c r="K99">
-        <v>0.0154</v>
-      </c>
-    </row>
-    <row r="100" hidden="1" spans="1:11">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
       <c r="B100">
-        <v>0.0091</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="C100">
-        <f>VLOOKUP(A100,J:K,2,0)</f>
-        <v>0.0091</v>
+        <f t="shared" si="5"/>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>71</v>
       </c>
       <c r="K100">
-        <v>0.0639</v>
-      </c>
-    </row>
-    <row r="101" hidden="1" spans="1:11">
+        <v>6.3899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
       <c r="B101">
-        <v>0.0087</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="C101">
-        <f>VLOOKUP(A101,J:K,2,0)</f>
-        <v>0.0103</v>
+        <f t="shared" si="5"/>
+        <v>1.03E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
-        <v>0.0016</v>
+        <f t="shared" si="4"/>
+        <v>1.6000000000000007E-3</v>
       </c>
       <c r="J101" t="s">
         <v>111</v>
       </c>
       <c r="K101">
-        <v>0.0263</v>
-      </c>
-    </row>
-    <row r="102" hidden="1" spans="1:11">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
       <c r="B102">
-        <v>0.0087</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="C102">
-        <f>VLOOKUP(A102,J:K,2,0)</f>
-        <v>0.0149</v>
+        <f t="shared" si="5"/>
+        <v>1.49E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
-        <v>0.0062</v>
+        <f t="shared" si="4"/>
+        <v>6.2000000000000006E-3</v>
       </c>
       <c r="J102" t="s">
         <v>86</v>
       </c>
       <c r="K102">
-        <v>0.0462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>91</v>
       </c>
       <c r="B103">
-        <v>0.0069</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="C103">
-        <f>VLOOKUP(A103,J:K,2,0)</f>
-        <v>0.0327</v>
+        <f t="shared" si="5"/>
+        <v>3.27E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
-        <v>0.0258</v>
+        <f t="shared" si="4"/>
+        <v>2.58E-2</v>
       </c>
       <c r="J103" t="s">
         <v>126</v>
       </c>
       <c r="K103">
-        <v>0.0149</v>
-      </c>
-    </row>
-    <row r="104" hidden="1" spans="1:11">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>127</v>
       </c>
       <c r="B104">
-        <v>0.0065</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C104">
-        <f>VLOOKUP(A104,J:K,2,0)</f>
-        <v>0.0101</v>
+        <f t="shared" si="5"/>
+        <v>1.01E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
-        <v>0.0036</v>
+        <f t="shared" si="4"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J104" t="s">
         <v>9</v>
       </c>
       <c r="K104">
-        <v>0.1296</v>
-      </c>
-    </row>
-    <row r="105" hidden="1" spans="1:11">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
       <c r="B105">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="C105">
-        <f>VLOOKUP(A105,J:K,2,0)</f>
-        <v>0.0085</v>
+        <f t="shared" si="5"/>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
-        <v>0.0021</v>
+        <f t="shared" si="4"/>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="J105" t="s">
         <v>54</v>
@@ -4315,503 +3699,503 @@
         <v>0.1033</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>110</v>
       </c>
       <c r="B106">
-        <v>0.0064</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="C106">
-        <f>VLOOKUP(A106,J:K,2,0)</f>
-        <v>0.0237</v>
+        <f t="shared" si="5"/>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0.0173</v>
+        <f t="shared" si="4"/>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="J106" t="s">
         <v>129</v>
       </c>
       <c r="K106">
-        <v>0.0136</v>
-      </c>
-    </row>
-    <row r="107" hidden="1" spans="1:11">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>122</v>
       </c>
       <c r="B107">
-        <v>0.0058</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="C107">
-        <f>VLOOKUP(A107,J:K,2,0)</f>
-        <v>0.0182</v>
+        <f t="shared" si="5"/>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
-        <v>0.0124</v>
+        <f t="shared" si="4"/>
+        <v>1.2400000000000001E-2</v>
       </c>
       <c r="J107" t="s">
         <v>38</v>
       </c>
       <c r="K107">
-        <v>0.0832</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>103</v>
       </c>
       <c r="B108">
-        <v>0.0056</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C108">
-        <f>VLOOKUP(A108,J:K,2,0)</f>
-        <v>0.028</v>
+        <f t="shared" si="5"/>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
-        <v>0.0224</v>
+        <f t="shared" si="4"/>
+        <v>2.24E-2</v>
       </c>
       <c r="J108" t="s">
         <v>130</v>
       </c>
       <c r="K108">
-        <v>0.0116</v>
-      </c>
-    </row>
-    <row r="109" hidden="1" spans="1:11">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>129</v>
       </c>
       <c r="B109">
-        <v>0.0055</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C109">
-        <f>VLOOKUP(A109,J:K,2,0)</f>
-        <v>0.0136</v>
+        <f t="shared" si="5"/>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
-        <v>0.0081</v>
+        <f t="shared" si="4"/>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="J109" t="s">
         <v>70</v>
       </c>
       <c r="K109">
-        <v>0.0539</v>
-      </c>
-    </row>
-    <row r="110" hidden="1" spans="1:11">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
       <c r="B110">
-        <v>0.0045</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C110">
-        <f>VLOOKUP(A110,J:K,2,0)</f>
-        <v>0.0154</v>
+        <f t="shared" si="5"/>
+        <v>1.54E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
-        <v>0.0109</v>
+        <f t="shared" si="4"/>
+        <v>1.09E-2</v>
       </c>
       <c r="J110" t="s">
         <v>131</v>
       </c>
       <c r="K110">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>95</v>
       </c>
       <c r="B111">
-        <v>0.0043</v>
+        <v>4.3E-3</v>
       </c>
       <c r="C111">
-        <f>VLOOKUP(A111,J:K,2,0)</f>
-        <v>0.031</v>
+        <f t="shared" si="5"/>
+        <v>3.1E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
-        <v>0.0267</v>
+        <f t="shared" si="4"/>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="J111" t="s">
         <v>132</v>
       </c>
       <c r="K111">
-        <v>0.0111</v>
-      </c>
-    </row>
-    <row r="112" hidden="1" spans="1:11">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>133</v>
       </c>
       <c r="B112">
-        <v>0.0043</v>
+        <v>4.3E-3</v>
       </c>
       <c r="C112">
-        <f>VLOOKUP(A112,J:K,2,0)</f>
-        <v>0.0039</v>
+        <f t="shared" si="5"/>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
-        <v>-0.0004</v>
+        <f t="shared" si="4"/>
+        <v>-4.0000000000000018E-4</v>
       </c>
       <c r="J112" t="s">
         <v>113</v>
       </c>
       <c r="K112">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.0043</v>
+        <v>4.3E-3</v>
       </c>
       <c r="C113">
-        <f>VLOOKUP(A113,J:K,2,0)</f>
-        <v>0.0233</v>
+        <f t="shared" si="5"/>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
-        <v>0.019</v>
+        <f t="shared" si="4"/>
+        <v>1.9000000000000003E-2</v>
       </c>
       <c r="J113" t="s">
         <v>125</v>
       </c>
       <c r="K113">
-        <v>0.0103</v>
-      </c>
-    </row>
-    <row r="114" hidden="1" spans="1:11">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>130</v>
       </c>
       <c r="B114">
-        <v>0.0033</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C114">
-        <f>VLOOKUP(A114,J:K,2,0)</f>
-        <v>0.0116</v>
+        <f t="shared" si="5"/>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
-        <v>0.0083</v>
+        <f t="shared" si="4"/>
+        <v>8.2999999999999984E-3</v>
       </c>
       <c r="J114" t="s">
         <v>134</v>
       </c>
       <c r="K114">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="115" hidden="1" spans="1:11">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>135</v>
       </c>
       <c r="B115">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C115">
-        <f>VLOOKUP(A115,J:K,2,0)</f>
-        <v>0.0085</v>
+        <f t="shared" si="5"/>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
-        <v>0.0053</v>
+        <f t="shared" si="4"/>
+        <v>5.3000000000000009E-3</v>
       </c>
       <c r="J115" t="s">
         <v>24</v>
       </c>
       <c r="K115">
-        <v>0.1266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>136</v>
       </c>
       <c r="B116">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="C116">
-        <f>VLOOKUP(A116,J:K,2,0)</f>
-        <v>0.0268</v>
+        <f t="shared" si="5"/>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
-        <v>0.0237</v>
+        <f t="shared" si="4"/>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="J116" t="s">
         <v>127</v>
       </c>
       <c r="K116">
-        <v>0.0101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>109</v>
       </c>
       <c r="B117">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C117">
-        <f>VLOOKUP(A117,J:K,2,0)</f>
-        <v>0.0237</v>
+        <f t="shared" si="5"/>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
-        <v>0.0207</v>
+        <f t="shared" si="4"/>
+        <v>2.07E-2</v>
       </c>
       <c r="J117" t="s">
         <v>137</v>
       </c>
       <c r="K117">
-        <v>0.0099</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>89</v>
       </c>
       <c r="B118">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C118">
-        <f>VLOOKUP(A118,J:K,2,0)</f>
-        <v>0.0334</v>
+        <f t="shared" si="5"/>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
-        <v>0.0308</v>
+        <f t="shared" si="4"/>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="J118" t="s">
         <v>138</v>
       </c>
       <c r="K118">
-        <v>0.0094</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" spans="1:11">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>137</v>
       </c>
       <c r="B119">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C119">
-        <f>VLOOKUP(A119,J:K,2,0)</f>
-        <v>0.0099</v>
+        <f t="shared" si="5"/>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
-        <v>0.0073</v>
+        <f t="shared" si="4"/>
+        <v>7.3000000000000009E-3</v>
       </c>
       <c r="J119" t="s">
         <v>118</v>
       </c>
       <c r="K119">
-        <v>0.0307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
       <c r="B120">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C120">
-        <f>VLOOKUP(A120,J:K,2,0)</f>
-        <v>0.0224</v>
+        <f t="shared" si="5"/>
+        <v>2.24E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
-        <v>0.0198</v>
+        <f t="shared" si="4"/>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="J120" t="s">
         <v>124</v>
       </c>
       <c r="K120">
-        <v>0.0091</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>90</v>
       </c>
       <c r="B121">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C121">
-        <f>VLOOKUP(A121,J:K,2,0)</f>
-        <v>0.0333</v>
+        <f t="shared" si="5"/>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
-        <v>0.0307</v>
+        <f t="shared" si="4"/>
+        <v>3.0700000000000005E-2</v>
       </c>
       <c r="J121" t="s">
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>84</v>
       </c>
       <c r="B122">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C122">
-        <f>VLOOKUP(A122,J:K,2,0)</f>
-        <v>0.036</v>
+        <f t="shared" si="5"/>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>0.0334</v>
+        <f t="shared" si="4"/>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="J122" t="s">
         <v>128</v>
       </c>
       <c r="K122">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="123" hidden="1" spans="1:11">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>139</v>
       </c>
       <c r="B123">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C123">
-        <f>VLOOKUP(A123,J:K,2,0)</f>
-        <v>0.0029</v>
+        <f t="shared" si="5"/>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>0.0004</v>
+        <f t="shared" si="4"/>
+        <v>3.9999999999999975E-4</v>
       </c>
       <c r="J123" t="s">
         <v>114</v>
       </c>
       <c r="K123">
-        <v>0.0219</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" spans="1:11">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>140</v>
       </c>
       <c r="B124">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C124">
-        <f>VLOOKUP(A124,J:K,2,0)</f>
-        <v>0.0068</v>
+        <f t="shared" si="5"/>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
-        <v>0.0044</v>
+        <f t="shared" si="4"/>
+        <v>4.3999999999999994E-3</v>
       </c>
       <c r="J124" t="s">
         <v>81</v>
       </c>
       <c r="K124">
-        <v>0.0506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>119</v>
       </c>
       <c r="B125">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="C125">
-        <f>VLOOKUP(A125,J:K,2,0)</f>
-        <v>0.0223</v>
+        <f t="shared" si="5"/>
+        <v>2.23E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
-        <v>0.0201</v>
+        <f t="shared" si="4"/>
+        <v>2.01E-2</v>
       </c>
       <c r="J125" t="s">
         <v>140</v>
       </c>
       <c r="K125">
-        <v>0.0068</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
       <c r="B126">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="C126">
-        <f>VLOOKUP(A126,J:K,2,0)</f>
-        <v>0.0224</v>
+        <f t="shared" si="5"/>
+        <v>2.24E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
-        <v>0.0202</v>
+        <f t="shared" si="4"/>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="J126" t="s">
         <v>141</v>
       </c>
       <c r="K126">
-        <v>0.0066</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>83</v>
       </c>
       <c r="B127">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="C127">
-        <f>VLOOKUP(A127,J:K,2,0)</f>
-        <v>0.0368</v>
+        <f t="shared" si="5"/>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
-        <v>0.0346</v>
+        <f t="shared" si="4"/>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="J127" t="s">
         <v>142</v>
       </c>
       <c r="K127">
-        <v>0.0043</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" spans="1:11">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>143</v>
       </c>
       <c r="B128">
-        <v>0.0021</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="C128">
-        <f>VLOOKUP(A128,J:K,2,0)</f>
-        <v>0.0021</v>
+        <f t="shared" si="5"/>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J128" t="s">
@@ -4821,306 +4205,306 @@
         <v>0.1019</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>121</v>
       </c>
       <c r="B129">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="C129">
-        <f>VLOOKUP(A129,J:K,2,0)</f>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
-        <v>0.0182</v>
+        <f t="shared" si="4"/>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="J129" t="s">
         <v>133</v>
       </c>
       <c r="K129">
-        <v>0.0039</v>
-      </c>
-    </row>
-    <row r="130" hidden="1" spans="1:11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>144</v>
       </c>
       <c r="B130">
-        <v>0.0017</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="C130">
-        <f>VLOOKUP(A130,J:K,2,0)</f>
-        <v>0.003</v>
+        <f t="shared" ref="C130:C146" si="6">VLOOKUP(A130,J:K,2,0)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D130">
-        <f t="shared" si="1"/>
-        <v>0.0013</v>
+        <f t="shared" si="4"/>
+        <v>1.3000000000000002E-3</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <v>0.0785</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>7.85E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
       <c r="B131">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C131">
-        <f>VLOOKUP(A131,J:K,2,0)</f>
-        <v>0.0342</v>
+        <f t="shared" si="6"/>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D146" si="2">C131-B131</f>
-        <v>0.0328</v>
+        <f t="shared" ref="D131:D146" si="7">C131-B131</f>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="J131" t="s">
         <v>144</v>
       </c>
       <c r="K131">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>74</v>
       </c>
       <c r="B132">
-        <v>0.0011</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C132">
-        <f>VLOOKUP(A132,J:K,2,0)</f>
-        <v>0.0452</v>
+        <f t="shared" si="6"/>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
-        <v>0.0441</v>
+        <f t="shared" si="7"/>
+        <v>4.41E-2</v>
       </c>
       <c r="J132" t="s">
         <v>139</v>
       </c>
       <c r="K132">
-        <v>0.0029</v>
-      </c>
-    </row>
-    <row r="133" hidden="1" spans="1:11">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>47</v>
       </c>
       <c r="B133">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C133">
-        <f>VLOOKUP(A133,J:K,2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
-        <v>-0.001</v>
+        <f t="shared" si="7"/>
+        <v>-1E-3</v>
       </c>
       <c r="J133" t="s">
         <v>145</v>
       </c>
       <c r="K133">
-        <v>0.0332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>105</v>
       </c>
       <c r="B134" s="8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C134">
-        <f>VLOOKUP(A134,J:K,2,0)</f>
-        <v>0.026</v>
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
-        <v>0.0251</v>
+        <f t="shared" si="7"/>
+        <v>2.5099999999999997E-2</v>
       </c>
       <c r="J134" t="s">
         <v>143</v>
       </c>
       <c r="K134">
-        <v>0.0021</v>
-      </c>
-    </row>
-    <row r="135" hidden="1" spans="1:11">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>146</v>
       </c>
       <c r="B135" s="8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C135">
-        <f>VLOOKUP(A135,J:K,2,0)</f>
-        <v>0.0009</v>
+        <f t="shared" si="6"/>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J135" t="s">
         <v>117</v>
       </c>
       <c r="K135">
-        <v>0.0235</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
       <c r="B136" s="8">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C136">
-        <f>VLOOKUP(A136,J:K,2,0)</f>
-        <v>0.0332</v>
+        <f t="shared" si="6"/>
+        <v>3.32E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
-        <v>0.0323</v>
+        <f t="shared" si="7"/>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="J136" t="s">
         <v>146</v>
       </c>
       <c r="K136">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="137" hidden="1" spans="1:11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>142</v>
       </c>
       <c r="B137" s="8">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C137">
-        <f>VLOOKUP(A137,J:K,2,0)</f>
-        <v>0.0043</v>
+        <f t="shared" si="6"/>
+        <v>4.3E-3</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
-        <v>0.0035</v>
+        <f t="shared" si="7"/>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J137" t="s">
         <v>136</v>
       </c>
       <c r="K137">
-        <v>0.0268</v>
-      </c>
-    </row>
-    <row r="138" hidden="1" spans="1:11">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>147</v>
       </c>
       <c r="B138" s="8">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="C138">
-        <f>VLOOKUP(A138,J:K,2,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
-        <v>-0.0007</v>
+        <f t="shared" si="7"/>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="J138" t="s">
         <v>7</v>
       </c>
       <c r="K138">
-        <v>0.1354</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>0.13539999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>107</v>
       </c>
       <c r="B139" s="8">
-        <v>0.0006</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="C139">
-        <f>VLOOKUP(A139,J:K,2,0)</f>
-        <v>0.0243</v>
+        <f t="shared" si="6"/>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
-        <v>0.0237</v>
+        <f t="shared" si="7"/>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="J139" t="s">
         <v>148</v>
       </c>
       <c r="K139">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="140" hidden="1" spans="1:11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="8">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C140">
-        <f>VLOOKUP(A140,J:K,2,0)</f>
-        <v>0.0094</v>
+        <f t="shared" si="6"/>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
-        <v>0.0091</v>
+        <f t="shared" si="7"/>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="J140" t="s">
         <v>61</v>
       </c>
       <c r="K140">
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="141" hidden="1" spans="1:11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="8">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C141">
-        <f>VLOOKUP(A141,J:K,2,0)</f>
-        <v>0.0066</v>
+        <f t="shared" si="6"/>
+        <v>6.6E-3</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
-        <v>0.0064</v>
+        <f t="shared" si="7"/>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J141" t="s">
         <v>56</v>
       </c>
       <c r="K141">
-        <v>0.1093</v>
-      </c>
-    </row>
-    <row r="142" hidden="1" spans="1:11">
+        <v>0.10929999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>132</v>
       </c>
       <c r="B142" s="8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="C142">
-        <f>VLOOKUP(A142,J:K,2,0)</f>
-        <v>0.0111</v>
+        <f t="shared" si="6"/>
+        <v>1.11E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
-        <v>0.011</v>
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="J142" t="s">
         <v>5</v>
@@ -5129,19 +4513,19 @@
         <v>0.1454</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:11">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>148</v>
       </c>
       <c r="B143" s="8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="C143">
-        <f>VLOOKUP(A143,J:K,2,0)</f>
-        <v>0.0001</v>
+        <f t="shared" si="6"/>
+        <v>1E-4</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J143" t="s">
@@ -5151,20 +4535,20 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>94</v>
       </c>
       <c r="B144" s="8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="C144">
-        <f>VLOOKUP(A144,J:K,2,0)</f>
-        <v>0.0311</v>
+        <f t="shared" si="6"/>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
-        <v>0.031</v>
+        <f t="shared" si="7"/>
+        <v>3.1E-2</v>
       </c>
       <c r="J144" t="s">
         <v>147</v>
@@ -5173,36 +4557,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>92</v>
       </c>
       <c r="B145" s="8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="C145">
-        <f>VLOOKUP(A145,J:K,2,0)</f>
-        <v>0.0326</v>
+        <f t="shared" si="6"/>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
-        <v>0.0325</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <f t="shared" si="7"/>
+        <v>3.2499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>96</v>
       </c>
       <c r="B146" s="8">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="C146">
-        <f>VLOOKUP(A146,J:K,2,0)</f>
-        <v>0.031</v>
+        <f t="shared" si="6"/>
+        <v>3.1E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
-        <v>0.0309</v>
+        <f t="shared" si="7"/>
+        <v>3.09E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5212,31 +4596,29 @@
         <customFilter operator="greaterThanOrEqual" val="0.02"/>
       </customFilters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
   <sortState ref="J2:K148">
-    <sortCondition ref="K2:K148" descending="1"/>
+    <sortCondition descending="1" ref="K2:K148"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:B$1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5244,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -5252,7 +4634,7 @@
         <v>0.1298</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -5260,15 +4642,15 @@
         <v>0.1008</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
       <c r="B4">
-        <v>0.0794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -5276,15 +4658,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
       <c r="B6">
-        <v>0.1309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.13089999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -5292,103 +4674,103 @@
         <v>0.1076</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
       <c r="B8">
-        <v>0.1107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
       <c r="B9">
-        <v>0.0989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>9.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
       <c r="B10">
-        <v>0.0282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
       <c r="B11">
-        <v>0.0271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
       <c r="B12">
-        <v>0.1214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.12139999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
       <c r="B13">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>161</v>
       </c>
       <c r="B14">
-        <v>0.0585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
       <c r="B15">
-        <v>0.0628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
       <c r="B16">
-        <v>0.0821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>164</v>
       </c>
       <c r="B17">
-        <v>0.0831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
       <c r="B18">
-        <v>0.0607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>166</v>
       </c>
       <c r="B19">
-        <v>0.0642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -5396,7 +4778,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -5404,127 +4786,127 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>169</v>
       </c>
       <c r="B22">
-        <v>0.0094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
       <c r="B23">
-        <v>0.0334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
       <c r="B24">
-        <v>0.0243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>172</v>
       </c>
       <c r="B25">
-        <v>0.0103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>173</v>
       </c>
       <c r="B26">
-        <v>0.0284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
       <c r="B27">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>175</v>
       </c>
       <c r="B28">
-        <v>0.0404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>176</v>
       </c>
       <c r="B29">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>177</v>
       </c>
       <c r="B30">
-        <v>0.0066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
       <c r="B31">
-        <v>0.0099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>179</v>
       </c>
       <c r="B32">
-        <v>0.1219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>180</v>
       </c>
       <c r="B33">
-        <v>0.0043</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>181</v>
       </c>
       <c r="B34">
-        <v>0.0039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>182</v>
       </c>
       <c r="B35">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>183</v>
       </c>
       <c r="B36">
-        <v>0.0154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -5532,79 +4914,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
       <c r="B38">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
       <c r="B39">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>187</v>
       </c>
       <c r="B40">
-        <v>0.0111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>188</v>
       </c>
       <c r="B41">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>189</v>
       </c>
       <c r="B42">
-        <v>0.0091</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>190</v>
       </c>
       <c r="B43">
-        <v>0.0068</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>191</v>
       </c>
       <c r="B44">
-        <v>0.0461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>192</v>
       </c>
       <c r="B45">
-        <v>0.0883</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>8.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>193</v>
       </c>
       <c r="B46">
-        <v>0.0396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -5612,143 +4994,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
       <c r="B48">
-        <v>0.0116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>196</v>
       </c>
       <c r="B49">
-        <v>0.0029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>197</v>
       </c>
       <c r="B50">
-        <v>0.0217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>198</v>
       </c>
       <c r="B51">
-        <v>0.0291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>199</v>
       </c>
       <c r="B52">
-        <v>0.0021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
       <c r="B53">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>201</v>
       </c>
       <c r="B54">
-        <v>0.0136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>202</v>
       </c>
       <c r="B55">
-        <v>0.0327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>203</v>
       </c>
       <c r="B56">
-        <v>0.0149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>204</v>
       </c>
       <c r="B57">
-        <v>0.0101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>205</v>
       </c>
       <c r="B58">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>206</v>
       </c>
       <c r="B59">
-        <v>0.1359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>207</v>
       </c>
       <c r="B60">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>208</v>
       </c>
       <c r="B61">
-        <v>0.0398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>209</v>
       </c>
       <c r="B62">
-        <v>0.0895</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>8.9499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>210</v>
       </c>
       <c r="B63">
-        <v>0.1063</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>211</v>
       </c>
       <c r="B64">
-        <v>0.0874</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>8.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -5756,135 +5138,135 @@
         <v>0.1066</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>213</v>
       </c>
       <c r="B66">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>214</v>
       </c>
       <c r="B67">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>215</v>
       </c>
       <c r="B68">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>216</v>
       </c>
       <c r="B69">
-        <v>0.0182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
       <c r="B70">
-        <v>0.1068</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>218</v>
       </c>
       <c r="B71">
-        <v>0.2023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.20230000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>219</v>
       </c>
       <c r="B72">
-        <v>0.0985</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>220</v>
       </c>
       <c r="B73">
-        <v>0.0483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>221</v>
       </c>
       <c r="B74">
-        <v>0.0846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>222</v>
       </c>
       <c r="B75">
-        <v>0.0309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>223</v>
       </c>
       <c r="B76">
-        <v>0.0588</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>224</v>
       </c>
       <c r="B77">
-        <v>0.0338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>225</v>
       </c>
       <c r="B78">
-        <v>0.0661</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>226</v>
       </c>
       <c r="B79">
-        <v>0.0229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>2.29E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>227</v>
       </c>
       <c r="B80">
-        <v>0.0455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>228</v>
       </c>
       <c r="B81">
-        <v>0.0223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -5892,87 +5274,87 @@
         <v>0.1293</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>230</v>
       </c>
       <c r="B83">
-        <v>0.089</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>231</v>
       </c>
       <c r="B84">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>232</v>
       </c>
       <c r="B85">
-        <v>0.0839</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>233</v>
       </c>
       <c r="B86">
-        <v>0.0282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>234</v>
       </c>
       <c r="B87">
-        <v>0.0576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>235</v>
       </c>
       <c r="B88">
-        <v>0.0317</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>236</v>
       </c>
       <c r="B89">
-        <v>0.0678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>237</v>
       </c>
       <c r="B90">
-        <v>0.0253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>238</v>
       </c>
       <c r="B91">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>239</v>
       </c>
       <c r="B92">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>240</v>
       </c>
@@ -5980,7 +5362,7 @@
         <v>0.1278</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -5988,87 +5370,87 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>242</v>
       </c>
       <c r="B95">
-        <v>0.0515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>243</v>
       </c>
       <c r="B96">
-        <v>0.0798</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>244</v>
       </c>
       <c r="B97">
-        <v>0.0311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>245</v>
       </c>
       <c r="B98">
-        <v>0.0527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>246</v>
       </c>
       <c r="B99">
-        <v>0.0343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>247</v>
       </c>
       <c r="B100">
-        <v>0.0639</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>6.3899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>248</v>
       </c>
       <c r="B101">
-        <v>0.0263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>249</v>
       </c>
       <c r="B102">
-        <v>0.0462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>250</v>
       </c>
       <c r="B103">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>251</v>
       </c>
       <c r="B104">
-        <v>0.1296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -6076,87 +5458,87 @@
         <v>0.1033</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>253</v>
       </c>
       <c r="B106">
-        <v>0.0457</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>254</v>
       </c>
       <c r="B107">
-        <v>0.0832</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
       <c r="B108">
-        <v>0.0326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>256</v>
       </c>
       <c r="B109">
-        <v>0.0539</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>257</v>
       </c>
       <c r="B110">
-        <v>0.0342</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>258</v>
       </c>
       <c r="B111">
-        <v>0.0677</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>259</v>
       </c>
       <c r="B112">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>260</v>
       </c>
       <c r="B113">
-        <v>0.0464</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>261</v>
       </c>
       <c r="B114">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>262</v>
       </c>
       <c r="B115">
-        <v>0.1266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -6164,95 +5546,95 @@
         <v>0.1031</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>264</v>
       </c>
       <c r="B117">
-        <v>0.0428</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>265</v>
       </c>
       <c r="B118">
-        <v>0.0764</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>7.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>266</v>
       </c>
       <c r="B119">
-        <v>0.0307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>267</v>
       </c>
       <c r="B120">
-        <v>0.0534</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>268</v>
       </c>
       <c r="B121">
-        <v>0.0345</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>269</v>
       </c>
       <c r="B122">
-        <v>0.0652</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>270</v>
       </c>
       <c r="B123">
-        <v>0.0219</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>271</v>
       </c>
       <c r="B124">
-        <v>0.0506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>272</v>
       </c>
       <c r="B125">
-        <v>0.0368</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>273</v>
       </c>
       <c r="B126">
-        <v>0.1233</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.12330000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>274</v>
       </c>
       <c r="B127">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>275</v>
       </c>
@@ -6260,111 +5642,111 @@
         <v>0.1019</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>276</v>
       </c>
       <c r="B129">
-        <v>0.0452</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>277</v>
       </c>
       <c r="B130">
-        <v>0.0785</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>7.85E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
       <c r="B131">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>279</v>
       </c>
       <c r="B132">
-        <v>0.0556</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>280</v>
       </c>
       <c r="B133">
-        <v>0.0332</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>281</v>
       </c>
       <c r="B134">
-        <v>0.0632</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>282</v>
       </c>
       <c r="B135">
-        <v>0.0235</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>283</v>
       </c>
       <c r="B136">
-        <v>0.0509</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>284</v>
       </c>
       <c r="B137">
-        <v>0.0268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>285</v>
       </c>
       <c r="B138">
-        <v>0.1354</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.13539999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>286</v>
       </c>
       <c r="B139">
-        <v>0.0784</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>287</v>
       </c>
       <c r="B140">
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>288</v>
       </c>
       <c r="B141">
-        <v>0.1093</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.10929999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>289</v>
       </c>
@@ -6372,7 +5754,7 @@
         <v>0.1454</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -6380,7 +5762,7 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -6388,7 +5770,7 @@
         <v>0.1323</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>292</v>
       </c>
@@ -6397,32 +5779,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K24:K25"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.8888888888889"/>
-    <col min="9" max="9" width="14.1111111111111"/>
+    <col min="6" max="6" width="12.88671875"/>
+    <col min="9" max="9" width="14.109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:1">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:12">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>294</v>
@@ -6458,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -6478,25 +5859,25 @@
         <v>0.133743</v>
       </c>
       <c r="G3" s="5">
-        <v>0.133929</v>
+        <v>0.13392899999999999</v>
       </c>
       <c r="H3" s="5">
-        <v>0.1337</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="I3" s="5">
-        <v>0.0189</v>
+        <v>1.89E-2</v>
       </c>
       <c r="J3" s="5">
-        <v>0.0193</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="K3" s="5">
-        <v>-0.0014</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:12">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -6513,28 +5894,28 @@
         <v>138</v>
       </c>
       <c r="F4" s="7">
-        <v>0.083128</v>
+        <v>8.3127999999999994E-2</v>
       </c>
       <c r="G4" s="7">
-        <v>0.17602</v>
+        <v>0.17602000000000001</v>
       </c>
       <c r="H4" s="7">
-        <v>0.0849</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="I4" s="7">
-        <v>0.0392</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="J4" s="7">
-        <v>0.0408</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="K4" s="7">
-        <v>-0.7502</v>
+        <v>-0.75019999999999998</v>
       </c>
       <c r="L4" s="7">
-        <v>0.0697</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:12">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6560,19 +5941,19 @@
         <v>0.2311</v>
       </c>
       <c r="I5" s="5">
-        <v>0.0204</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="K5" s="5">
-        <v>-0.0748</v>
+        <v>-7.4800000000000005E-2</v>
       </c>
       <c r="L5" s="5">
-        <v>0.0013</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -6598,19 +5979,19 @@
         <v>0.4299</v>
       </c>
       <c r="I6" s="5">
-        <v>0.0163</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>0.0165</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="K6" s="5">
-        <v>0.1531</v>
+        <v>0.15310000000000001</v>
       </c>
       <c r="L6" s="5">
-        <v>0.0094</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:12">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -6630,25 +6011,25 @@
         <v>0.121249</v>
       </c>
       <c r="G7" s="5">
-        <v>0.071429</v>
+        <v>7.1429000000000006E-2</v>
       </c>
       <c r="H7" s="5">
         <v>0.1203</v>
       </c>
       <c r="I7" s="5">
-        <v>0.0112</v>
+        <v>1.12E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>0.0114</v>
+        <v>1.14E-2</v>
       </c>
       <c r="K7" s="5">
-        <v>0.5291</v>
+        <v>0.52910000000000001</v>
       </c>
       <c r="L7" s="5">
-        <v>0.0264</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:12">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6686,7 +6067,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:12">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -6712,47 +6093,54 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0.0189</v>
+        <v>1.89E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>0.0193</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <v>0.1068</v>
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>F4-G4</f>
+        <v>-9.2892000000000016E-2</v>
+      </c>
+      <c r="H13">
+        <f>G13*K4</f>
+        <v>6.9687578400000005E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:1">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>313</v>
       </c>
@@ -6760,7 +6148,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>294</v>
@@ -6796,7 +6184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:12">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -6816,25 +6204,25 @@
         <v>0.106714</v>
       </c>
       <c r="G4" s="4">
-        <v>0.08801</v>
+        <v>8.8010000000000005E-2</v>
       </c>
       <c r="H4" s="4">
-        <v>0.1064</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="I4" s="4">
-        <v>0.0157</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="J4" s="4">
-        <v>0.0159</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="K4" s="4">
-        <v>0.1927</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="L4" s="4">
-        <v>0.0036</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:12">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -6851,28 +6239,28 @@
         <v>9</v>
       </c>
       <c r="F5" s="4">
-        <v>0.053763</v>
+        <v>5.3762999999999998E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>0.01148</v>
+        <v>1.1480000000000001E-2</v>
       </c>
       <c r="H5" s="4">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I5" s="4">
-        <v>0.0041</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="J5" s="4">
-        <v>0.0041</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K5" s="4">
         <v>1.544</v>
       </c>
       <c r="L5" s="4">
-        <v>0.0653</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:12">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6889,28 +6277,28 @@
         <v>40</v>
       </c>
       <c r="F6" s="4">
-        <v>0.083079</v>
+        <v>8.3079E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>0.05102</v>
+        <v>5.1020000000000003E-2</v>
       </c>
       <c r="H6" s="4">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="I6" s="4">
-        <v>0.0117</v>
+        <v>1.17E-2</v>
       </c>
       <c r="J6" s="4">
-        <v>0.0118</v>
+        <v>1.18E-2</v>
       </c>
       <c r="K6" s="4">
-        <v>0.4876</v>
+        <v>0.48759999999999998</v>
       </c>
       <c r="L6" s="4">
-        <v>0.0156</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:12">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -6927,28 +6315,28 @@
         <v>666</v>
       </c>
       <c r="F7" s="4">
-        <v>0.756444</v>
+        <v>0.75644400000000001</v>
       </c>
       <c r="G7" s="4">
-        <v>0.84949</v>
+        <v>0.84948999999999997</v>
       </c>
       <c r="H7" s="4">
-        <v>0.7582</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="I7" s="4">
-        <v>0.0212</v>
+        <v>2.12E-2</v>
       </c>
       <c r="J7" s="4">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="K7" s="4">
-        <v>-0.116</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="L7" s="4">
-        <v>0.0108</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:12">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -6986,7 +6374,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:12">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -7012,19 +6400,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0189</v>
+        <v>1.89E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>0.0193</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0.0953</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>319</v>
       </c>
@@ -7032,7 +6420,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>321</v>
       </c>
@@ -7040,31 +6428,31 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>D5/D9</f>
-        <v>0.0537629119527791</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6">
+        <v>5.3762911952779144E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>E4/D4</f>
-        <v>0.0159022816317124</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>1.5902281631712378E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>C5/C9</f>
-        <v>0.0529630344561336</v>
+        <v>5.2963034456133574E-2</v>
       </c>
       <c r="D17">
         <f>E4/C4</f>
-        <v>0.0156533575317604</v>
+        <v>1.5653357531760434E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>